--- a/plantillas/plantilla_entrada.xlsx
+++ b/plantillas/plantilla_entrada.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="hoja_entrada" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +18,269 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N6P5500007750</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>P500928182</t>
+  </si>
+  <si>
+    <t>N6P</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>ORAL-B LABORATORIES G.P.</t>
+  </si>
+  <si>
+    <t>1 PROCTER &amp; GAMBLE PLAZA</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>PROVEEDORA MEXICANA DE MONOFILAMENTOS S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>ORIENTE 217 NO. 190</t>
+  </si>
+  <si>
+    <t>AGRICOLA ORIENTAL</t>
+  </si>
+  <si>
+    <t>MEXICO CITY</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>01980</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvoiceCreditFlag</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>PoNo</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
+    <t>SapBox</t>
+  </si>
+  <si>
+    <t>BaselineDate</t>
+  </si>
+  <si>
+    <t>ShipToCountry</t>
+  </si>
+  <si>
+    <t>ShipFromCountry</t>
+  </si>
+  <si>
+    <t>LegalEntity</t>
+  </si>
+  <si>
+    <t>LE Country</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PGVAT ID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>City1</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Vendor No</t>
+  </si>
+  <si>
+    <t>PartnerVAT</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>BankCountryKey</t>
+  </si>
+  <si>
+    <t>BankAccountNo</t>
+  </si>
+  <si>
+    <t>RemitTo No</t>
+  </si>
+  <si>
+    <t>ProfitCenter</t>
+  </si>
+  <si>
+    <t>WbsElement</t>
+  </si>
+  <si>
+    <t>customerServiceOrder</t>
+  </si>
+  <si>
+    <t>Global BusinessArea</t>
+  </si>
+  <si>
+    <t>Paymentmethod</t>
+  </si>
+  <si>
+    <t>Paymentmethod Supplement</t>
+  </si>
+  <si>
+    <t>item Text</t>
+  </si>
+  <si>
+    <t>PartDescription</t>
+  </si>
+  <si>
+    <t>LineItemNumber</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>NetPrice</t>
+  </si>
+  <si>
+    <t>LineItemAmount</t>
+  </si>
+  <si>
+    <t>MaterialNumber</t>
+  </si>
+  <si>
+    <t>TaxId</t>
+  </si>
+  <si>
+    <t>TaxAmount</t>
+  </si>
+  <si>
+    <t>TaxRate</t>
+  </si>
+  <si>
+    <t>UnplannedDeliveryCost</t>
+  </si>
+  <si>
+    <t>ISRNo</t>
+  </si>
+  <si>
+    <t>ISRRefNo</t>
+  </si>
+  <si>
+    <t>ScbIndicator</t>
+  </si>
+  <si>
+    <t>WithHoldingTax</t>
+  </si>
+  <si>
+    <t>NetAmount</t>
+  </si>
+  <si>
+    <t>InvoiceAmount</t>
+  </si>
+  <si>
+    <t>TaxType</t>
+  </si>
+  <si>
+    <t>AllowanceAmount</t>
+  </si>
+  <si>
+    <t>AllowanceDescription</t>
+  </si>
+  <si>
+    <t>AllowanceCode</t>
+  </si>
+  <si>
+    <t>ChargesAmount</t>
+  </si>
+  <si>
+    <t>ChargesDescription</t>
+  </si>
+  <si>
+    <t>ChargesCode</t>
+  </si>
+  <si>
+    <t>InvoiceType</t>
+  </si>
+  <si>
+    <t>ShipToName</t>
+  </si>
+  <si>
+    <t>ShipToAddress</t>
+  </si>
+  <si>
+    <t>ShipToState</t>
+  </si>
+  <si>
+    <t>ShipToCity1</t>
+  </si>
+  <si>
+    <t>ShipToPostalCode</t>
+  </si>
+  <si>
+    <t>TaxId1</t>
+  </si>
+  <si>
+    <t>TaxType1</t>
+  </si>
+  <si>
+    <t>TaxRate1</t>
+  </si>
+  <si>
+    <t>TaxAmount1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyymmdd"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +288,334 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -45,18 +623,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +951,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +986,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1168,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BZ5" sqref="BZ5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3988</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>170</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45202</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1">
+        <v>15138370</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>144.47999999999999</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>2914.1615999999999</v>
+      </c>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="2">
+        <v>90600269</v>
+      </c>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="3">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plantillas/plantilla_entrada.xlsx
+++ b/plantillas/plantilla_entrada.xlsx
@@ -19,51 +19,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>N6P5500007750</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>P500928182</t>
-  </si>
-  <si>
-    <t>N6P</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>ORAL-B LABORATORIES G.P.</t>
-  </si>
-  <si>
-    <t>1 PROCTER &amp; GAMBLE PLAZA</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>CINCINNATI</t>
-  </si>
-  <si>
-    <t>PROVEEDORA MEXICANA DE MONOFILAMENTOS S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>ORIENTE 217 NO. 190</t>
-  </si>
-  <si>
-    <t>AGRICOLA ORIENTAL</t>
-  </si>
-  <si>
-    <t>MEXICO CITY</t>
-  </si>
-  <si>
-    <t>MX</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+  <si>
+    <t xml:space="preserve"> InvoiceCreditFlag</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>SapBox</t>
+  </si>
+  <si>
+    <t>BaselineDate</t>
+  </si>
+  <si>
+    <t>ShipToCountry</t>
+  </si>
+  <si>
+    <t>ShipFromCountry</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PGVAT ID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>City1</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>PartnerVAT</t>
+  </si>
+  <si>
+    <t>BankCountryKey</t>
+  </si>
+  <si>
+    <t>BankAccountNo</t>
+  </si>
+  <si>
+    <t>RemitTo No</t>
+  </si>
+  <si>
+    <t>ProfitCenter</t>
+  </si>
+  <si>
+    <t>WbsElement</t>
+  </si>
+  <si>
+    <t>customerServiceOrder</t>
+  </si>
+  <si>
+    <t>Global BusinessArea</t>
+  </si>
+  <si>
+    <t>Paymentmethod</t>
+  </si>
+  <si>
+    <t>Paymentmethod Supplement</t>
+  </si>
+  <si>
+    <t>item Text</t>
+  </si>
+  <si>
+    <t>PartDescription</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>NetPrice</t>
+  </si>
+  <si>
+    <t>TaxId</t>
+  </si>
+  <si>
+    <t>TaxAmount</t>
+  </si>
+  <si>
+    <t>TaxRate</t>
+  </si>
+  <si>
+    <t>UnplannedDeliveryCost</t>
+  </si>
+  <si>
+    <t>ISRNo</t>
+  </si>
+  <si>
+    <t>ISRRefNo</t>
+  </si>
+  <si>
+    <t>ScbIndicator</t>
+  </si>
+  <si>
+    <t>WithHoldingTax</t>
+  </si>
+  <si>
+    <t>NetAmount</t>
+  </si>
+  <si>
+    <t>TaxType</t>
+  </si>
+  <si>
+    <t>AllowanceAmount</t>
+  </si>
+  <si>
+    <t>AllowanceDescription</t>
+  </si>
+  <si>
+    <t>AllowanceCode</t>
+  </si>
+  <si>
+    <t>ChargesAmount</t>
+  </si>
+  <si>
+    <t>ChargesDescription</t>
+  </si>
+  <si>
+    <t>ChargesCode</t>
+  </si>
+  <si>
+    <t>ShipToName</t>
+  </si>
+  <si>
+    <t>ShipToAddress</t>
+  </si>
+  <si>
+    <t>ShipToState</t>
+  </si>
+  <si>
+    <t>ShipToCity1</t>
+  </si>
+  <si>
+    <t>ShipToPostalCode</t>
+  </si>
+  <si>
+    <t>TaxId1</t>
+  </si>
+  <si>
+    <t>TaxType1</t>
+  </si>
+  <si>
+    <t>TaxRate1</t>
   </si>
   <si>
     <t>01980</t>
@@ -72,214 +186,106 @@
     <t>KG</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InvoiceCreditFlag</t>
-  </si>
-  <si>
-    <t>InvoiceDate</t>
-  </si>
-  <si>
-    <t>InvoiceNo</t>
-  </si>
-  <si>
-    <t>PoNo</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>BIL</t>
-  </si>
-  <si>
-    <t>SapBox</t>
-  </si>
-  <si>
-    <t>BaselineDate</t>
-  </si>
-  <si>
-    <t>ShipToCountry</t>
-  </si>
-  <si>
-    <t>ShipFromCountry</t>
-  </si>
-  <si>
-    <t>LegalEntity</t>
-  </si>
-  <si>
-    <t>LE Country</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PGVAT ID</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>City1</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Vendor No</t>
-  </si>
-  <si>
-    <t>PartnerVAT</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>BankCountryKey</t>
-  </si>
-  <si>
-    <t>BankAccountNo</t>
-  </si>
-  <si>
-    <t>RemitTo No</t>
-  </si>
-  <si>
-    <t>ProfitCenter</t>
-  </si>
-  <si>
-    <t>WbsElement</t>
-  </si>
-  <si>
-    <t>customerServiceOrder</t>
-  </si>
-  <si>
-    <t>Global BusinessArea</t>
-  </si>
-  <si>
-    <t>Paymentmethod</t>
-  </si>
-  <si>
-    <t>Paymentmethod Supplement</t>
-  </si>
-  <si>
-    <t>item Text</t>
-  </si>
-  <si>
-    <t>PartDescription</t>
-  </si>
-  <si>
-    <t>LineItemNumber</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UoM</t>
-  </si>
-  <si>
-    <t>NetPrice</t>
-  </si>
-  <si>
-    <t>LineItemAmount</t>
-  </si>
-  <si>
-    <t>MaterialNumber</t>
-  </si>
-  <si>
-    <t>TaxId</t>
-  </si>
-  <si>
-    <t>TaxAmount</t>
-  </si>
-  <si>
-    <t>TaxRate</t>
-  </si>
-  <si>
-    <t>UnplannedDeliveryCost</t>
-  </si>
-  <si>
-    <t>ISRNo</t>
-  </si>
-  <si>
-    <t>ISRRefNo</t>
-  </si>
-  <si>
-    <t>ScbIndicator</t>
-  </si>
-  <si>
-    <t>WithHoldingTax</t>
-  </si>
-  <si>
-    <t>NetAmount</t>
-  </si>
-  <si>
-    <t>InvoiceAmount</t>
-  </si>
-  <si>
-    <t>TaxType</t>
-  </si>
-  <si>
-    <t>AllowanceAmount</t>
-  </si>
-  <si>
-    <t>AllowanceDescription</t>
-  </si>
-  <si>
-    <t>AllowanceCode</t>
-  </si>
-  <si>
-    <t>ChargesAmount</t>
-  </si>
-  <si>
-    <t>ChargesDescription</t>
-  </si>
-  <si>
-    <t>ChargesCode</t>
-  </si>
-  <si>
-    <t>InvoiceType</t>
-  </si>
-  <si>
-    <t>ShipToName</t>
-  </si>
-  <si>
-    <t>ShipToAddress</t>
-  </si>
-  <si>
-    <t>ShipToState</t>
-  </si>
-  <si>
-    <t>ShipToCity1</t>
-  </si>
-  <si>
-    <t>ShipToPostalCode</t>
-  </si>
-  <si>
-    <t>TaxId1</t>
-  </si>
-  <si>
-    <t>TaxType1</t>
-  </si>
-  <si>
-    <t>TaxRate1</t>
-  </si>
-  <si>
-    <t>TaxAmount1</t>
+    <t>01940</t>
+  </si>
+  <si>
+    <t>01970</t>
+  </si>
+  <si>
+    <t>01240</t>
+  </si>
+  <si>
+    <t>01400</t>
+  </si>
+  <si>
+    <t>01440</t>
+  </si>
+  <si>
+    <t>01630</t>
+  </si>
+  <si>
+    <t>PoNo_1</t>
+  </si>
+  <si>
+    <t>Currency_1</t>
+  </si>
+  <si>
+    <t>Bil_1</t>
+  </si>
+  <si>
+    <t>LegalEntity_1</t>
+  </si>
+  <si>
+    <t>LE_Country_1</t>
+  </si>
+  <si>
+    <t>Name_1</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>Address1_1</t>
+  </si>
+  <si>
+    <t>City1_1</t>
+  </si>
+  <si>
+    <t>PostalCode1</t>
+  </si>
+  <si>
+    <t>Country_1</t>
+  </si>
+  <si>
+    <t>Vendor_No</t>
+  </si>
+  <si>
+    <t>Vendor_Name</t>
+  </si>
+  <si>
+    <t>Address1_vendor</t>
+  </si>
+  <si>
+    <t>Addres2_vendor</t>
+  </si>
+  <si>
+    <t>City1_vendor</t>
+  </si>
+  <si>
+    <t>Country1_vendor</t>
+  </si>
+  <si>
+    <t>Line_Item_Number</t>
+  </si>
+  <si>
+    <t>Line_Item_Amount</t>
+  </si>
+  <si>
+    <t>PoNo_2</t>
+  </si>
+  <si>
+    <t>Tax_Amount1</t>
+  </si>
+  <si>
+    <t>Material_Number</t>
+  </si>
+  <si>
+    <t>Invoice_Amount</t>
+  </si>
+  <si>
+    <t>Tax_Amount</t>
+  </si>
+  <si>
+    <t>Tax_Rate</t>
+  </si>
+  <si>
+    <t>Invoice_Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyymmdd"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,26 +602,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -730,15 +718,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -784,41 +763,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1168,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC2"/>
+  <dimension ref="A1:CE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BZ5" sqref="BZ5"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="CC1" sqref="CC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,320 +1183,280 @@
     <col min="81" max="81" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="AK1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="AL1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="AM1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="AN1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="AO1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="AP1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="AT1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="AU1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="BA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="BB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="BC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="BD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="BE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="BF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="BG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="9" t="s">
+      <c r="BH1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="9" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="9" t="s">
+      <c r="BN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="BO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="BP1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="BR1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="BU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="BV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="BW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="BX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="BY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="CA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="CB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BU1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="BV1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="BZ1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CC1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CB1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="CC1" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43444</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3988</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>170</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="1">
-        <v>45202</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1">
-        <v>15138370</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1567,23 +1474,23 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS2" s="2">
+      <c r="AR2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="1">
         <v>144.47999999999999</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU2" s="2">
+        <v>54</v>
+      </c>
+      <c r="AU2" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="AV2" s="3">
+      <c r="AV2" s="1">
         <v>2914.1615999999999</v>
       </c>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="2">
+      <c r="AX2" s="1">
         <v>90600269</v>
       </c>
       <c r="AY2" s="1"/>
@@ -1595,26 +1502,20 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="3">
+      <c r="BH2" s="1">
         <v>31115.455300000005</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
-      <c r="BK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>0</v>
-      </c>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
-      <c r="BS2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="BS2" s="1"/>
       <c r="BT2" s="1"/>
       <c r="BU2" s="1"/>
       <c r="BV2" s="1"/>
@@ -1624,9 +1525,1623 @@
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
       <c r="CB2" s="1"/>
-      <c r="CC2" s="1">
-        <v>0</v>
-      </c>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>222.64</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>4268.0088000000005</v>
+      </c>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1">
+        <v>90600264</v>
+      </c>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>335.12</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>23.12</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>7747.9744000000001</v>
+      </c>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1">
+        <v>90600268</v>
+      </c>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>277.63</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>27.16</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>7540.4308000000001</v>
+      </c>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1">
+        <v>90630844</v>
+      </c>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>226.53</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>17.93</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>4061.6828999999998</v>
+      </c>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1">
+        <v>96748005</v>
+      </c>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>112.47</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>17.82</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>2004.2154</v>
+      </c>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1">
+        <v>96748009</v>
+      </c>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>110.26</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>23.39</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>2578.9814000000001</v>
+      </c>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1">
+        <v>97121042</v>
+      </c>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1">
+        <v>31115.455300000005</v>
+      </c>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+    </row>
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+    </row>
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+    </row>
+    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
